--- a/Code/Results/Cases/Case_5_104/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_104/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.012529272217926</v>
+        <v>1.037174652730593</v>
       </c>
       <c r="D2">
-        <v>1.027490542740438</v>
+        <v>1.039345150821084</v>
       </c>
       <c r="E2">
-        <v>1.023810721276363</v>
+        <v>1.044846267074777</v>
       </c>
       <c r="F2">
-        <v>1.026744852994314</v>
+        <v>1.052998016541885</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05009202058491</v>
+        <v>1.039510812905085</v>
       </c>
       <c r="J2">
-        <v>1.034341585659986</v>
+        <v>1.042278957846756</v>
       </c>
       <c r="K2">
-        <v>1.03857972841772</v>
+        <v>1.042130602937207</v>
       </c>
       <c r="L2">
-        <v>1.034948009608307</v>
+        <v>1.047616169536049</v>
       </c>
       <c r="M2">
-        <v>1.03784375144558</v>
+        <v>1.055745200838477</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.016711817279174</v>
+        <v>1.038054295861997</v>
       </c>
       <c r="D3">
-        <v>1.030501928584183</v>
+        <v>1.039992116374041</v>
       </c>
       <c r="E3">
-        <v>1.027428694691158</v>
+        <v>1.045662683957637</v>
       </c>
       <c r="F3">
-        <v>1.03100398354483</v>
+        <v>1.053975934325667</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051446482208954</v>
+        <v>1.039731913920884</v>
       </c>
       <c r="J3">
-        <v>1.036757041711577</v>
+        <v>1.042803222087647</v>
       </c>
       <c r="K3">
-        <v>1.040758857624998</v>
+        <v>1.042588198571586</v>
       </c>
       <c r="L3">
-        <v>1.037722248327797</v>
+        <v>1.048243893789712</v>
       </c>
       <c r="M3">
-        <v>1.041254955164124</v>
+        <v>1.056535652856418</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.019365131794046</v>
+        <v>1.038623885310594</v>
       </c>
       <c r="D4">
-        <v>1.032414290178916</v>
+        <v>1.040410971569566</v>
       </c>
       <c r="E4">
-        <v>1.029729647248756</v>
+        <v>1.046191759196989</v>
       </c>
       <c r="F4">
-        <v>1.033713392050776</v>
+        <v>1.054609856701185</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052295180096066</v>
+        <v>1.039873779529956</v>
       </c>
       <c r="J4">
-        <v>1.03828612041967</v>
+        <v>1.043142209178983</v>
       </c>
       <c r="K4">
-        <v>1.042136631268569</v>
+        <v>1.042883832314429</v>
       </c>
       <c r="L4">
-        <v>1.039482028835862</v>
+        <v>1.048650220296053</v>
       </c>
       <c r="M4">
-        <v>1.043421265426313</v>
+        <v>1.057047652390872</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.020468293956709</v>
+        <v>1.038863435537513</v>
       </c>
       <c r="D5">
-        <v>1.033209823402685</v>
+        <v>1.04058711067115</v>
       </c>
       <c r="E5">
-        <v>1.030687668105155</v>
+        <v>1.046414372159535</v>
       </c>
       <c r="F5">
-        <v>1.034841662095469</v>
+        <v>1.054876630050585</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0526454737057</v>
+        <v>1.039933131484263</v>
       </c>
       <c r="J5">
-        <v>1.038921056397326</v>
+        <v>1.043284659140218</v>
       </c>
       <c r="K5">
-        <v>1.042708320599885</v>
+        <v>1.043008005224954</v>
       </c>
       <c r="L5">
-        <v>1.040213627627818</v>
+        <v>1.048821073916485</v>
       </c>
       <c r="M5">
-        <v>1.044322478593399</v>
+        <v>1.057263021126956</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.020652810660143</v>
+        <v>1.038903662597333</v>
       </c>
       <c r="D6">
-        <v>1.033342909868834</v>
+        <v>1.040616688227943</v>
       </c>
       <c r="E6">
-        <v>1.030847987300172</v>
+        <v>1.046451760936925</v>
       </c>
       <c r="F6">
-        <v>1.03503048291128</v>
+        <v>1.054921438397865</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052703912372612</v>
+        <v>1.039943080009421</v>
       </c>
       <c r="J6">
-        <v>1.039027208634798</v>
+        <v>1.043308573552787</v>
       </c>
       <c r="K6">
-        <v>1.04280387398503</v>
+        <v>1.043028847831878</v>
       </c>
       <c r="L6">
-        <v>1.040335991645531</v>
+        <v>1.048849762946944</v>
       </c>
       <c r="M6">
-        <v>1.044473247530351</v>
+        <v>1.057299189724819</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.019379920061929</v>
+        <v>1.038627085821486</v>
       </c>
       <c r="D7">
-        <v>1.032424952915354</v>
+        <v>1.040413324944993</v>
       </c>
       <c r="E7">
-        <v>1.029742484516923</v>
+        <v>1.046194733018695</v>
       </c>
       <c r="F7">
-        <v>1.033728509865507</v>
+        <v>1.05461342027138</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052299886092461</v>
+        <v>1.039874573727554</v>
       </c>
       <c r="J7">
-        <v>1.038294635174152</v>
+        <v>1.043144112840303</v>
       </c>
       <c r="K7">
-        <v>1.042144299527364</v>
+        <v>1.042885491958488</v>
       </c>
       <c r="L7">
-        <v>1.039491836446449</v>
+        <v>1.048652503118592</v>
       </c>
       <c r="M7">
-        <v>1.043433344430603</v>
+        <v>1.057050529672424</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.013954027405671</v>
+        <v>1.037471848323503</v>
       </c>
       <c r="D8">
-        <v>1.0285159020811</v>
+        <v>1.03956374829936</v>
       </c>
       <c r="E8">
-        <v>1.025041926938895</v>
+        <v>1.04512201263919</v>
       </c>
       <c r="F8">
-        <v>1.028194112418639</v>
+        <v>1.053328270601945</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050555594910496</v>
+        <v>1.039585783393737</v>
       </c>
       <c r="J8">
-        <v>1.035165053554789</v>
+        <v>1.042456185870477</v>
       </c>
       <c r="K8">
-        <v>1.039322979242644</v>
+        <v>1.042285344366882</v>
       </c>
       <c r="L8">
-        <v>1.03589304571826</v>
+        <v>1.047828280727888</v>
       </c>
       <c r="M8">
-        <v>1.039005253487836</v>
+        <v>1.056012228432013</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.00396682049963</v>
+        <v>1.035439304997625</v>
       </c>
       <c r="D9">
-        <v>1.021338811147743</v>
+        <v>1.038068478633945</v>
       </c>
       <c r="E9">
-        <v>1.016437286774946</v>
+        <v>1.043237928755869</v>
       </c>
       <c r="F9">
-        <v>1.018067679934632</v>
+        <v>1.05107250361547</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047262940136182</v>
+        <v>1.039067726477223</v>
       </c>
       <c r="J9">
-        <v>1.029380273581145</v>
+        <v>1.041242127897351</v>
       </c>
       <c r="K9">
-        <v>1.034094914464294</v>
+        <v>1.041224323500111</v>
       </c>
       <c r="L9">
-        <v>1.029269193128813</v>
+        <v>1.046377074858833</v>
       </c>
       <c r="M9">
-        <v>1.030874268444978</v>
+        <v>1.054186684373468</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9969931310329532</v>
+        <v>1.034086459169528</v>
       </c>
       <c r="D10">
-        <v>1.016342825033087</v>
+        <v>1.037072929043329</v>
       </c>
       <c r="E10">
-        <v>1.010463327429979</v>
+        <v>1.041986123100413</v>
       </c>
       <c r="F10">
-        <v>1.011038998276691</v>
+        <v>1.049574687293532</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044910786805095</v>
+        <v>1.038716230146761</v>
       </c>
       <c r="J10">
-        <v>1.025326558069944</v>
+        <v>1.040431581804161</v>
       </c>
       <c r="K10">
-        <v>1.030423143736167</v>
+        <v>1.040514698543595</v>
       </c>
       <c r="L10">
-        <v>1.024646198670149</v>
+        <v>1.045410469421601</v>
       </c>
       <c r="M10">
-        <v>1.025211760179592</v>
+        <v>1.052972476047896</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9938916059640986</v>
+        <v>1.033501195698953</v>
       </c>
       <c r="D11">
-        <v>1.014125312509684</v>
+        <v>1.036642171859087</v>
       </c>
       <c r="E11">
-        <v>1.007815100455285</v>
+        <v>1.041445104562645</v>
       </c>
       <c r="F11">
-        <v>1.007923346536751</v>
+        <v>1.048927565109512</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043852665703181</v>
+        <v>1.038562584177112</v>
       </c>
       <c r="J11">
-        <v>1.023520727834889</v>
+        <v>1.040080341447528</v>
       </c>
       <c r="K11">
-        <v>1.028785673477037</v>
+        <v>1.04020689640788</v>
       </c>
       <c r="L11">
-        <v>1.022591125157208</v>
+        <v>1.04499213889361</v>
       </c>
       <c r="M11">
-        <v>1.022697371216014</v>
+        <v>1.052447396459219</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.992726620612061</v>
+        <v>1.03328388331554</v>
       </c>
       <c r="D12">
-        <v>1.013293111028119</v>
+        <v>1.036482219428597</v>
       </c>
       <c r="E12">
-        <v>1.0068217317405</v>
+        <v>1.041244301190728</v>
       </c>
       <c r="F12">
-        <v>1.006754635921286</v>
+        <v>1.04868741329845</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043453463085533</v>
+        <v>1.038505296681528</v>
       </c>
       <c r="J12">
-        <v>1.022842024945161</v>
+        <v>1.039949835861339</v>
       </c>
       <c r="K12">
-        <v>1.028169991684304</v>
+        <v>1.040092486456272</v>
       </c>
       <c r="L12">
-        <v>1.021819394822656</v>
+        <v>1.044836785959507</v>
       </c>
       <c r="M12">
-        <v>1.02175356191047</v>
+        <v>1.052252462119796</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9929771102756529</v>
+        <v>1.033330493895324</v>
       </c>
       <c r="D13">
-        <v>1.013472012802068</v>
+        <v>1.036516527482143</v>
       </c>
       <c r="E13">
-        <v>1.00703525940778</v>
+        <v>1.041287367157046</v>
       </c>
       <c r="F13">
-        <v>1.007005854656209</v>
+        <v>1.048738916779682</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043539376206018</v>
+        <v>1.038517594832068</v>
       </c>
       <c r="J13">
-        <v>1.022987973947961</v>
+        <v>1.039977831512886</v>
       </c>
       <c r="K13">
-        <v>1.028302399880924</v>
+        <v>1.040117031315896</v>
       </c>
       <c r="L13">
-        <v>1.02198531936614</v>
+        <v>1.044870108149251</v>
       </c>
       <c r="M13">
-        <v>1.021956465894817</v>
+        <v>1.052294271487684</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9937955757536084</v>
+        <v>1.033483230939567</v>
       </c>
       <c r="D14">
-        <v>1.014056698491431</v>
+        <v>1.036628949113092</v>
       </c>
       <c r="E14">
-        <v>1.00773318894317</v>
+        <v>1.041428502922487</v>
       </c>
       <c r="F14">
-        <v>1.007826976939423</v>
+        <v>1.048907709626312</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043819794643219</v>
+        <v>1.038557853188385</v>
       </c>
       <c r="J14">
-        <v>1.023464790020777</v>
+        <v>1.04006955461016</v>
       </c>
       <c r="K14">
-        <v>1.028734934891761</v>
+        <v>1.040197440841462</v>
       </c>
       <c r="L14">
-        <v>1.022527507004597</v>
+        <v>1.044979296678231</v>
       </c>
       <c r="M14">
-        <v>1.02261955944503</v>
+        <v>1.052431281004755</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9942981246888106</v>
+        <v>1.033577347981655</v>
       </c>
       <c r="D15">
-        <v>1.014415802295236</v>
+        <v>1.03669822245736</v>
       </c>
       <c r="E15">
-        <v>1.008161906706273</v>
+        <v>1.041515481910429</v>
       </c>
       <c r="F15">
-        <v>1.008331366597716</v>
+        <v>1.049011737426378</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043991745493565</v>
+        <v>1.038582629016477</v>
       </c>
       <c r="J15">
-        <v>1.02375750975022</v>
+        <v>1.040126063064768</v>
       </c>
       <c r="K15">
-        <v>1.029000436995577</v>
+        <v>1.040246973429563</v>
       </c>
       <c r="L15">
-        <v>1.022860443933232</v>
+        <v>1.045046575829429</v>
       </c>
       <c r="M15">
-        <v>1.023026793185045</v>
+        <v>1.052515710858158</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.99719719036916</v>
+        <v>1.034125312402989</v>
       </c>
       <c r="D16">
-        <v>1.016488820419136</v>
+        <v>1.037101523901911</v>
       </c>
       <c r="E16">
-        <v>1.010637747528489</v>
+        <v>1.042022050372243</v>
       </c>
       <c r="F16">
-        <v>1.011244204795872</v>
+        <v>1.049617665175446</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044980157847068</v>
+        <v>1.038726396720381</v>
       </c>
       <c r="J16">
-        <v>1.025445311344891</v>
+        <v>1.040454886902949</v>
       </c>
       <c r="K16">
-        <v>1.030530789361972</v>
+        <v>1.040535115285694</v>
       </c>
       <c r="L16">
-        <v>1.024781432653353</v>
+        <v>1.045438237294213</v>
       </c>
       <c r="M16">
-        <v>1.02537727632539</v>
+        <v>1.053007338305484</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9989933391013792</v>
+        <v>1.034469178167397</v>
       </c>
       <c r="D17">
-        <v>1.017774398181487</v>
+        <v>1.037354591632897</v>
       </c>
       <c r="E17">
-        <v>1.012174002260992</v>
+        <v>1.042340081963366</v>
       </c>
       <c r="F17">
-        <v>1.013051631197307</v>
+        <v>1.049998134819792</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045589406095836</v>
+        <v>1.038816191806088</v>
       </c>
       <c r="J17">
-        <v>1.026490256842744</v>
+        <v>1.040661078264535</v>
       </c>
       <c r="K17">
-        <v>1.031477793541103</v>
+        <v>1.040715717959829</v>
       </c>
       <c r="L17">
-        <v>1.025971891821336</v>
+        <v>1.045683974859594</v>
       </c>
       <c r="M17">
-        <v>1.026834623621885</v>
+        <v>1.053315906385237</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.000033148276014</v>
+        <v>1.034669800081639</v>
       </c>
       <c r="D18">
-        <v>1.018519049118473</v>
+        <v>1.037502232758793</v>
       </c>
       <c r="E18">
-        <v>1.013064176265097</v>
+        <v>1.042525682874575</v>
       </c>
       <c r="F18">
-        <v>1.014098948128763</v>
+        <v>1.050220195373043</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045940962563178</v>
+        <v>1.038868428222873</v>
       </c>
       <c r="J18">
-        <v>1.027094903367567</v>
+        <v>1.040781320214502</v>
       </c>
       <c r="K18">
-        <v>1.03202559695725</v>
+        <v>1.040821009249829</v>
       </c>
       <c r="L18">
-        <v>1.02666115197084</v>
+        <v>1.045827330184911</v>
       </c>
       <c r="M18">
-        <v>1.027678673656863</v>
+        <v>1.053495954506313</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.000386382932147</v>
+        <v>1.034738215553881</v>
       </c>
       <c r="D19">
-        <v>1.018772083966752</v>
+        <v>1.037552579778685</v>
       </c>
       <c r="E19">
-        <v>1.013366715949104</v>
+        <v>1.04258898464396</v>
       </c>
       <c r="F19">
-        <v>1.014454898485164</v>
+        <v>1.05029593582192</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046060194721469</v>
+        <v>1.038886215802908</v>
       </c>
       <c r="J19">
-        <v>1.02730025920833</v>
+        <v>1.040822315172505</v>
       </c>
       <c r="K19">
-        <v>1.032211617903054</v>
+        <v>1.040856902142757</v>
       </c>
       <c r="L19">
-        <v>1.026895315469032</v>
+        <v>1.0458762141312</v>
       </c>
       <c r="M19">
-        <v>1.027965469541475</v>
+        <v>1.053557357345557</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9988014462127206</v>
+        <v>1.034432279358409</v>
       </c>
       <c r="D20">
-        <v>1.017637008835778</v>
+        <v>1.037327436642795</v>
       </c>
       <c r="E20">
-        <v>1.012009789931399</v>
+        <v>1.042305949987785</v>
       </c>
       <c r="F20">
-        <v>1.012858431694337</v>
+        <v>1.049957299634496</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045524434895768</v>
+        <v>1.038806572071416</v>
       </c>
       <c r="J20">
-        <v>1.026378648409493</v>
+        <v>1.04063895856261</v>
       </c>
       <c r="K20">
-        <v>1.031376663602649</v>
+        <v>1.040696346289629</v>
       </c>
       <c r="L20">
-        <v>1.02584469850204</v>
+        <v>1.045657607388401</v>
       </c>
       <c r="M20">
-        <v>1.026678887513313</v>
+        <v>1.053282793157513</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9935549206574007</v>
+        <v>1.033438251453894</v>
       </c>
       <c r="D21">
-        <v>1.013884761396828</v>
+        <v>1.036595842353146</v>
       </c>
       <c r="E21">
-        <v>1.007527937721736</v>
+        <v>1.041386937666245</v>
       </c>
       <c r="F21">
-        <v>1.007585496899708</v>
+        <v>1.048857998305008</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043737390514572</v>
+        <v>1.03854600407812</v>
       </c>
       <c r="J21">
-        <v>1.023324601544177</v>
+        <v>1.040042545519859</v>
       </c>
       <c r="K21">
-        <v>1.028607772388599</v>
+        <v>1.040173764399655</v>
       </c>
       <c r="L21">
-        <v>1.022368080876836</v>
+        <v>1.044947142439367</v>
       </c>
       <c r="M21">
-        <v>1.022424570808783</v>
+        <v>1.052390932246224</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9901810015014567</v>
+        <v>1.032813733190111</v>
       </c>
       <c r="D22">
-        <v>1.011476086522467</v>
+        <v>1.036136149840035</v>
       </c>
       <c r="E22">
-        <v>1.00465365009156</v>
+        <v>1.040810015690758</v>
       </c>
       <c r="F22">
-        <v>1.004203816436775</v>
+        <v>1.048168087007255</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042577993427231</v>
+        <v>1.038380922127256</v>
       </c>
       <c r="J22">
-        <v>1.021358292816703</v>
+        <v>1.039667330242526</v>
       </c>
       <c r="K22">
-        <v>1.026823577238503</v>
+        <v>1.039844742583083</v>
       </c>
       <c r="L22">
-        <v>1.020133477557679</v>
+        <v>1.044500640210578</v>
       </c>
       <c r="M22">
-        <v>1.019692452379856</v>
+        <v>1.051830783950876</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9919769349952492</v>
+        <v>1.033144757498676</v>
       </c>
       <c r="D23">
-        <v>1.012757792274348</v>
+        <v>1.036379813551688</v>
       </c>
       <c r="E23">
-        <v>1.006182870591851</v>
+        <v>1.041115767360328</v>
       </c>
       <c r="F23">
-        <v>1.006003002266993</v>
+        <v>1.048533701808991</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04319608222683</v>
+        <v>1.038468553694208</v>
       </c>
       <c r="J23">
-        <v>1.022405161320027</v>
+        <v>1.039866260094642</v>
       </c>
       <c r="K23">
-        <v>1.027773622864085</v>
+        <v>1.040019205935006</v>
       </c>
       <c r="L23">
-        <v>1.021322833663083</v>
+        <v>1.044737320579427</v>
       </c>
       <c r="M23">
-        <v>1.021146391023161</v>
+        <v>1.052127671833456</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9988881785738543</v>
+        <v>1.034448952184954</v>
       </c>
       <c r="D24">
-        <v>1.017699105224942</v>
+        <v>1.037339706718344</v>
       </c>
       <c r="E24">
-        <v>1.01208400860595</v>
+        <v>1.042321372454288</v>
       </c>
       <c r="F24">
-        <v>1.012945751590368</v>
+        <v>1.049975750867528</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04555380433571</v>
+        <v>1.03881091924665</v>
       </c>
       <c r="J24">
-        <v>1.026429094427213</v>
+        <v>1.040648953584171</v>
       </c>
       <c r="K24">
-        <v>1.031422373963456</v>
+        <v>1.040705099671844</v>
       </c>
       <c r="L24">
-        <v>1.025902187466184</v>
+        <v>1.045669521649638</v>
       </c>
       <c r="M24">
-        <v>1.026749276452991</v>
+        <v>1.053297755397285</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.006602131483916</v>
+        <v>1.035964387020788</v>
       </c>
       <c r="D25">
-        <v>1.023230185881208</v>
+        <v>1.038454819786582</v>
       </c>
       <c r="E25">
-        <v>1.018702024323141</v>
+        <v>1.043724267111975</v>
       </c>
       <c r="F25">
-        <v>1.020732542488096</v>
+        <v>1.051654617580935</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048141095404789</v>
+        <v>1.039202739219382</v>
       </c>
       <c r="J25">
-        <v>1.030909332229255</v>
+        <v>1.041556202679</v>
       </c>
       <c r="K25">
-        <v>1.035478276920649</v>
+        <v>1.041499029033673</v>
       </c>
       <c r="L25">
-        <v>1.03101679037224</v>
+        <v>1.046752099165962</v>
       </c>
       <c r="M25">
-        <v>1.033017317214109</v>
+        <v>1.054658139976881</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_104/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_104/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.037174652730593</v>
+        <v>1.012529272217926</v>
       </c>
       <c r="D2">
-        <v>1.039345150821084</v>
+        <v>1.027490542740438</v>
       </c>
       <c r="E2">
-        <v>1.044846267074777</v>
+        <v>1.023810721276363</v>
       </c>
       <c r="F2">
-        <v>1.052998016541885</v>
+        <v>1.026744852994314</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039510812905085</v>
+        <v>1.050092020584911</v>
       </c>
       <c r="J2">
-        <v>1.042278957846756</v>
+        <v>1.034341585659986</v>
       </c>
       <c r="K2">
-        <v>1.042130602937207</v>
+        <v>1.03857972841772</v>
       </c>
       <c r="L2">
-        <v>1.047616169536049</v>
+        <v>1.034948009608307</v>
       </c>
       <c r="M2">
-        <v>1.055745200838477</v>
+        <v>1.03784375144558</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038054295861997</v>
+        <v>1.016711817279176</v>
       </c>
       <c r="D3">
-        <v>1.039992116374041</v>
+        <v>1.030501928584185</v>
       </c>
       <c r="E3">
-        <v>1.045662683957637</v>
+        <v>1.027428694691159</v>
       </c>
       <c r="F3">
-        <v>1.053975934325667</v>
+        <v>1.031003983544831</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039731913920884</v>
+        <v>1.051446482208954</v>
       </c>
       <c r="J3">
-        <v>1.042803222087647</v>
+        <v>1.036757041711578</v>
       </c>
       <c r="K3">
-        <v>1.042588198571586</v>
+        <v>1.040758857625</v>
       </c>
       <c r="L3">
-        <v>1.048243893789712</v>
+        <v>1.037722248327798</v>
       </c>
       <c r="M3">
-        <v>1.056535652856418</v>
+        <v>1.041254955164125</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038623885310594</v>
+        <v>1.019365131794046</v>
       </c>
       <c r="D4">
-        <v>1.040410971569566</v>
+        <v>1.032414290178916</v>
       </c>
       <c r="E4">
-        <v>1.046191759196989</v>
+        <v>1.029729647248755</v>
       </c>
       <c r="F4">
-        <v>1.054609856701185</v>
+        <v>1.033713392050775</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039873779529956</v>
+        <v>1.052295180096066</v>
       </c>
       <c r="J4">
-        <v>1.043142209178983</v>
+        <v>1.038286120419669</v>
       </c>
       <c r="K4">
-        <v>1.042883832314429</v>
+        <v>1.042136631268569</v>
       </c>
       <c r="L4">
-        <v>1.048650220296053</v>
+        <v>1.039482028835861</v>
       </c>
       <c r="M4">
-        <v>1.057047652390872</v>
+        <v>1.043421265426312</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038863435537513</v>
+        <v>1.020468293956708</v>
       </c>
       <c r="D5">
-        <v>1.04058711067115</v>
+        <v>1.033209823402684</v>
       </c>
       <c r="E5">
-        <v>1.046414372159535</v>
+        <v>1.030687668105155</v>
       </c>
       <c r="F5">
-        <v>1.054876630050585</v>
+        <v>1.034841662095469</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039933131484263</v>
+        <v>1.0526454737057</v>
       </c>
       <c r="J5">
-        <v>1.043284659140218</v>
+        <v>1.038921056397326</v>
       </c>
       <c r="K5">
-        <v>1.043008005224954</v>
+        <v>1.042708320599884</v>
       </c>
       <c r="L5">
-        <v>1.048821073916485</v>
+        <v>1.040213627627817</v>
       </c>
       <c r="M5">
-        <v>1.057263021126956</v>
+        <v>1.044322478593398</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.038903662597333</v>
+        <v>1.020652810660142</v>
       </c>
       <c r="D6">
-        <v>1.040616688227943</v>
+        <v>1.033342909868833</v>
       </c>
       <c r="E6">
-        <v>1.046451760936925</v>
+        <v>1.030847987300172</v>
       </c>
       <c r="F6">
-        <v>1.054921438397865</v>
+        <v>1.035030482911279</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039943080009421</v>
+        <v>1.052703912372611</v>
       </c>
       <c r="J6">
-        <v>1.043308573552787</v>
+        <v>1.039027208634797</v>
       </c>
       <c r="K6">
-        <v>1.043028847831878</v>
+        <v>1.04280387398503</v>
       </c>
       <c r="L6">
-        <v>1.048849762946944</v>
+        <v>1.040335991645531</v>
       </c>
       <c r="M6">
-        <v>1.057299189724819</v>
+        <v>1.04447324753035</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038627085821486</v>
+        <v>1.019379920061929</v>
       </c>
       <c r="D7">
-        <v>1.040413324944993</v>
+        <v>1.032424952915354</v>
       </c>
       <c r="E7">
-        <v>1.046194733018695</v>
+        <v>1.029742484516923</v>
       </c>
       <c r="F7">
-        <v>1.05461342027138</v>
+        <v>1.033728509865507</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039874573727554</v>
+        <v>1.052299886092461</v>
       </c>
       <c r="J7">
-        <v>1.043144112840303</v>
+        <v>1.038294635174152</v>
       </c>
       <c r="K7">
-        <v>1.042885491958488</v>
+        <v>1.042144299527364</v>
       </c>
       <c r="L7">
-        <v>1.048652503118592</v>
+        <v>1.039491836446448</v>
       </c>
       <c r="M7">
-        <v>1.057050529672424</v>
+        <v>1.043433344430603</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037471848323503</v>
+        <v>1.013954027405671</v>
       </c>
       <c r="D8">
-        <v>1.03956374829936</v>
+        <v>1.0285159020811</v>
       </c>
       <c r="E8">
-        <v>1.04512201263919</v>
+        <v>1.025041926938895</v>
       </c>
       <c r="F8">
-        <v>1.053328270601945</v>
+        <v>1.028194112418639</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039585783393737</v>
+        <v>1.050555594910496</v>
       </c>
       <c r="J8">
-        <v>1.042456185870477</v>
+        <v>1.03516505355479</v>
       </c>
       <c r="K8">
-        <v>1.042285344366882</v>
+        <v>1.039322979242645</v>
       </c>
       <c r="L8">
-        <v>1.047828280727888</v>
+        <v>1.03589304571826</v>
       </c>
       <c r="M8">
-        <v>1.056012228432013</v>
+        <v>1.039005253487836</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.035439304997625</v>
+        <v>1.00396682049963</v>
       </c>
       <c r="D9">
-        <v>1.038068478633945</v>
+        <v>1.021338811147743</v>
       </c>
       <c r="E9">
-        <v>1.043237928755869</v>
+        <v>1.016437286774946</v>
       </c>
       <c r="F9">
-        <v>1.05107250361547</v>
+        <v>1.018067679934632</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039067726477223</v>
+        <v>1.047262940136183</v>
       </c>
       <c r="J9">
-        <v>1.041242127897351</v>
+        <v>1.029380273581145</v>
       </c>
       <c r="K9">
-        <v>1.041224323500111</v>
+        <v>1.034094914464294</v>
       </c>
       <c r="L9">
-        <v>1.046377074858833</v>
+        <v>1.029269193128812</v>
       </c>
       <c r="M9">
-        <v>1.054186684373468</v>
+        <v>1.030874268444978</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.034086459169528</v>
+        <v>0.9969931310329523</v>
       </c>
       <c r="D10">
-        <v>1.037072929043329</v>
+        <v>1.016342825033086</v>
       </c>
       <c r="E10">
-        <v>1.041986123100413</v>
+        <v>1.010463327429978</v>
       </c>
       <c r="F10">
-        <v>1.049574687293532</v>
+        <v>1.01103899827669</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038716230146761</v>
+        <v>1.044910786805095</v>
       </c>
       <c r="J10">
-        <v>1.040431581804161</v>
+        <v>1.025326558069943</v>
       </c>
       <c r="K10">
-        <v>1.040514698543595</v>
+        <v>1.030423143736166</v>
       </c>
       <c r="L10">
-        <v>1.045410469421601</v>
+        <v>1.024646198670148</v>
       </c>
       <c r="M10">
-        <v>1.052972476047896</v>
+        <v>1.025211760179591</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.033501195698953</v>
+        <v>0.9938916059640976</v>
       </c>
       <c r="D11">
-        <v>1.036642171859087</v>
+        <v>1.014125312509683</v>
       </c>
       <c r="E11">
-        <v>1.041445104562645</v>
+        <v>1.007815100455284</v>
       </c>
       <c r="F11">
-        <v>1.048927565109512</v>
+        <v>1.00792334653675</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038562584177112</v>
+        <v>1.043852665703181</v>
       </c>
       <c r="J11">
-        <v>1.040080341447528</v>
+        <v>1.023520727834889</v>
       </c>
       <c r="K11">
-        <v>1.04020689640788</v>
+        <v>1.028785673477037</v>
       </c>
       <c r="L11">
-        <v>1.04499213889361</v>
+        <v>1.022591125157207</v>
       </c>
       <c r="M11">
-        <v>1.052447396459219</v>
+        <v>1.022697371216013</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.03328388331554</v>
+        <v>0.9927266206120607</v>
       </c>
       <c r="D12">
-        <v>1.036482219428597</v>
+        <v>1.013293111028119</v>
       </c>
       <c r="E12">
-        <v>1.041244301190728</v>
+        <v>1.0068217317405</v>
       </c>
       <c r="F12">
-        <v>1.04868741329845</v>
+        <v>1.006754635921285</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038505296681528</v>
+        <v>1.043453463085533</v>
       </c>
       <c r="J12">
-        <v>1.039949835861339</v>
+        <v>1.022842024945161</v>
       </c>
       <c r="K12">
-        <v>1.040092486456272</v>
+        <v>1.028169991684303</v>
       </c>
       <c r="L12">
-        <v>1.044836785959507</v>
+        <v>1.021819394822656</v>
       </c>
       <c r="M12">
-        <v>1.052252462119796</v>
+        <v>1.02175356191047</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.033330493895324</v>
+        <v>0.9929771102756528</v>
       </c>
       <c r="D13">
-        <v>1.036516527482143</v>
+        <v>1.013472012802069</v>
       </c>
       <c r="E13">
-        <v>1.041287367157046</v>
+        <v>1.00703525940778</v>
       </c>
       <c r="F13">
-        <v>1.048738916779682</v>
+        <v>1.007005854656209</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038517594832068</v>
+        <v>1.043539376206018</v>
       </c>
       <c r="J13">
-        <v>1.039977831512886</v>
+        <v>1.02298797394796</v>
       </c>
       <c r="K13">
-        <v>1.040117031315896</v>
+        <v>1.028302399880924</v>
       </c>
       <c r="L13">
-        <v>1.044870108149251</v>
+        <v>1.02198531936614</v>
       </c>
       <c r="M13">
-        <v>1.052294271487684</v>
+        <v>1.021956465894817</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.033483230939567</v>
+        <v>0.9937955757536083</v>
       </c>
       <c r="D14">
-        <v>1.036628949113092</v>
+        <v>1.014056698491431</v>
       </c>
       <c r="E14">
-        <v>1.041428502922487</v>
+        <v>1.00773318894317</v>
       </c>
       <c r="F14">
-        <v>1.048907709626312</v>
+        <v>1.007826976939423</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038557853188385</v>
+        <v>1.043819794643219</v>
       </c>
       <c r="J14">
-        <v>1.04006955461016</v>
+        <v>1.023464790020777</v>
       </c>
       <c r="K14">
-        <v>1.040197440841462</v>
+        <v>1.028734934891761</v>
       </c>
       <c r="L14">
-        <v>1.044979296678231</v>
+        <v>1.022527507004596</v>
       </c>
       <c r="M14">
-        <v>1.052431281004755</v>
+        <v>1.02261955944503</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.033577347981655</v>
+        <v>0.9942981246888111</v>
       </c>
       <c r="D15">
-        <v>1.03669822245736</v>
+        <v>1.014415802295236</v>
       </c>
       <c r="E15">
-        <v>1.041515481910429</v>
+        <v>1.008161906706273</v>
       </c>
       <c r="F15">
-        <v>1.049011737426378</v>
+        <v>1.008331366597716</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038582629016477</v>
+        <v>1.043991745493565</v>
       </c>
       <c r="J15">
-        <v>1.040126063064768</v>
+        <v>1.02375750975022</v>
       </c>
       <c r="K15">
-        <v>1.040246973429563</v>
+        <v>1.029000436995577</v>
       </c>
       <c r="L15">
-        <v>1.045046575829429</v>
+        <v>1.022860443933232</v>
       </c>
       <c r="M15">
-        <v>1.052515710858158</v>
+        <v>1.023026793185045</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.034125312402989</v>
+        <v>0.9971971903691599</v>
       </c>
       <c r="D16">
-        <v>1.037101523901911</v>
+        <v>1.016488820419136</v>
       </c>
       <c r="E16">
-        <v>1.042022050372243</v>
+        <v>1.010637747528488</v>
       </c>
       <c r="F16">
-        <v>1.049617665175446</v>
+        <v>1.011244204795872</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038726396720381</v>
+        <v>1.044980157847068</v>
       </c>
       <c r="J16">
-        <v>1.040454886902949</v>
+        <v>1.025445311344891</v>
       </c>
       <c r="K16">
-        <v>1.040535115285694</v>
+        <v>1.030530789361972</v>
       </c>
       <c r="L16">
-        <v>1.045438237294213</v>
+        <v>1.024781432653352</v>
       </c>
       <c r="M16">
-        <v>1.053007338305484</v>
+        <v>1.025377276325389</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.034469178167397</v>
+        <v>0.9989933391013782</v>
       </c>
       <c r="D17">
-        <v>1.037354591632897</v>
+        <v>1.017774398181486</v>
       </c>
       <c r="E17">
-        <v>1.042340081963366</v>
+        <v>1.012174002260992</v>
       </c>
       <c r="F17">
-        <v>1.049998134819792</v>
+        <v>1.013051631197306</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038816191806088</v>
+        <v>1.045589406095836</v>
       </c>
       <c r="J17">
-        <v>1.040661078264535</v>
+        <v>1.026490256842744</v>
       </c>
       <c r="K17">
-        <v>1.040715717959829</v>
+        <v>1.031477793541103</v>
       </c>
       <c r="L17">
-        <v>1.045683974859594</v>
+        <v>1.025971891821335</v>
       </c>
       <c r="M17">
-        <v>1.053315906385237</v>
+        <v>1.026834623621885</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034669800081639</v>
+        <v>1.000033148276014</v>
       </c>
       <c r="D18">
-        <v>1.037502232758793</v>
+        <v>1.018519049118474</v>
       </c>
       <c r="E18">
-        <v>1.042525682874575</v>
+        <v>1.013064176265096</v>
       </c>
       <c r="F18">
-        <v>1.050220195373043</v>
+        <v>1.014098948128762</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038868428222873</v>
+        <v>1.045940962563178</v>
       </c>
       <c r="J18">
-        <v>1.040781320214502</v>
+        <v>1.027094903367566</v>
       </c>
       <c r="K18">
-        <v>1.040821009249829</v>
+        <v>1.03202559695725</v>
       </c>
       <c r="L18">
-        <v>1.045827330184911</v>
+        <v>1.026661151970839</v>
       </c>
       <c r="M18">
-        <v>1.053495954506313</v>
+        <v>1.027678673656861</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034738215553881</v>
+        <v>1.000386382932148</v>
       </c>
       <c r="D19">
-        <v>1.037552579778685</v>
+        <v>1.018772083966752</v>
       </c>
       <c r="E19">
-        <v>1.04258898464396</v>
+        <v>1.013366715949105</v>
       </c>
       <c r="F19">
-        <v>1.05029593582192</v>
+        <v>1.014454898485164</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038886215802908</v>
+        <v>1.046060194721469</v>
       </c>
       <c r="J19">
-        <v>1.040822315172505</v>
+        <v>1.02730025920833</v>
       </c>
       <c r="K19">
-        <v>1.040856902142757</v>
+        <v>1.032211617903054</v>
       </c>
       <c r="L19">
-        <v>1.0458762141312</v>
+        <v>1.026895315469033</v>
       </c>
       <c r="M19">
-        <v>1.053557357345557</v>
+        <v>1.027965469541476</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.034432279358409</v>
+        <v>0.9988014462127206</v>
       </c>
       <c r="D20">
-        <v>1.037327436642795</v>
+        <v>1.017637008835778</v>
       </c>
       <c r="E20">
-        <v>1.042305949987785</v>
+        <v>1.012009789931399</v>
       </c>
       <c r="F20">
-        <v>1.049957299634496</v>
+        <v>1.012858431694336</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038806572071416</v>
+        <v>1.045524434895768</v>
       </c>
       <c r="J20">
-        <v>1.04063895856261</v>
+        <v>1.026378648409493</v>
       </c>
       <c r="K20">
-        <v>1.040696346289629</v>
+        <v>1.031376663602649</v>
       </c>
       <c r="L20">
-        <v>1.045657607388401</v>
+        <v>1.02584469850204</v>
       </c>
       <c r="M20">
-        <v>1.053282793157513</v>
+        <v>1.026678887513313</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.033438251453894</v>
+        <v>0.9935549206573996</v>
       </c>
       <c r="D21">
-        <v>1.036595842353146</v>
+        <v>1.013884761396827</v>
       </c>
       <c r="E21">
-        <v>1.041386937666245</v>
+        <v>1.007527937721735</v>
       </c>
       <c r="F21">
-        <v>1.048857998305008</v>
+        <v>1.007585496899706</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03854600407812</v>
+        <v>1.043737390514571</v>
       </c>
       <c r="J21">
-        <v>1.040042545519859</v>
+        <v>1.023324601544177</v>
       </c>
       <c r="K21">
-        <v>1.040173764399655</v>
+        <v>1.028607772388598</v>
       </c>
       <c r="L21">
-        <v>1.044947142439367</v>
+        <v>1.022368080876835</v>
       </c>
       <c r="M21">
-        <v>1.052390932246224</v>
+        <v>1.022424570808782</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.032813733190111</v>
+        <v>0.9901810015014569</v>
       </c>
       <c r="D22">
-        <v>1.036136149840035</v>
+        <v>1.011476086522468</v>
       </c>
       <c r="E22">
-        <v>1.040810015690758</v>
+        <v>1.00465365009156</v>
       </c>
       <c r="F22">
-        <v>1.048168087007255</v>
+        <v>1.004203816436775</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038380922127256</v>
+        <v>1.042577993427232</v>
       </c>
       <c r="J22">
-        <v>1.039667330242526</v>
+        <v>1.021358292816703</v>
       </c>
       <c r="K22">
-        <v>1.039844742583083</v>
+        <v>1.026823577238503</v>
       </c>
       <c r="L22">
-        <v>1.044500640210578</v>
+        <v>1.020133477557679</v>
       </c>
       <c r="M22">
-        <v>1.051830783950876</v>
+        <v>1.019692452379856</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.033144757498676</v>
+        <v>0.9919769349952491</v>
       </c>
       <c r="D23">
-        <v>1.036379813551688</v>
+        <v>1.012757792274348</v>
       </c>
       <c r="E23">
-        <v>1.041115767360328</v>
+        <v>1.006182870591851</v>
       </c>
       <c r="F23">
-        <v>1.048533701808991</v>
+        <v>1.006003002266993</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038468553694208</v>
+        <v>1.04319608222683</v>
       </c>
       <c r="J23">
-        <v>1.039866260094642</v>
+        <v>1.022405161320027</v>
       </c>
       <c r="K23">
-        <v>1.040019205935006</v>
+        <v>1.027773622864085</v>
       </c>
       <c r="L23">
-        <v>1.044737320579427</v>
+        <v>1.021322833663083</v>
       </c>
       <c r="M23">
-        <v>1.052127671833456</v>
+        <v>1.021146391023161</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.034448952184954</v>
+        <v>0.9988881785738539</v>
       </c>
       <c r="D24">
-        <v>1.037339706718344</v>
+        <v>1.017699105224941</v>
       </c>
       <c r="E24">
-        <v>1.042321372454288</v>
+        <v>1.012084008605949</v>
       </c>
       <c r="F24">
-        <v>1.049975750867528</v>
+        <v>1.012945751590368</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03881091924665</v>
+        <v>1.04555380433571</v>
       </c>
       <c r="J24">
-        <v>1.040648953584171</v>
+        <v>1.026429094427212</v>
       </c>
       <c r="K24">
-        <v>1.040705099671844</v>
+        <v>1.031422373963456</v>
       </c>
       <c r="L24">
-        <v>1.045669521649638</v>
+        <v>1.025902187466184</v>
       </c>
       <c r="M24">
-        <v>1.053297755397285</v>
+        <v>1.02674927645299</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035964387020788</v>
+        <v>1.006602131483917</v>
       </c>
       <c r="D25">
-        <v>1.038454819786582</v>
+        <v>1.023230185881209</v>
       </c>
       <c r="E25">
-        <v>1.043724267111975</v>
+        <v>1.018702024323141</v>
       </c>
       <c r="F25">
-        <v>1.051654617580935</v>
+        <v>1.020732542488097</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039202739219382</v>
+        <v>1.048141095404789</v>
       </c>
       <c r="J25">
-        <v>1.041556202679</v>
+        <v>1.030909332229256</v>
       </c>
       <c r="K25">
-        <v>1.041499029033673</v>
+        <v>1.035478276920649</v>
       </c>
       <c r="L25">
-        <v>1.046752099165962</v>
+        <v>1.03101679037224</v>
       </c>
       <c r="M25">
-        <v>1.054658139976881</v>
+        <v>1.03301731721411</v>
       </c>
     </row>
   </sheetData>
